--- a/zgr.xlsx
+++ b/zgr.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duan\Desktop\duan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\笔记本\d\python重要文件\duan\banbantong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349421C7-5DCB-4FBA-9B03-EEDAEC8C46D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>2019年9月29日上班补10月4日(星期五)的班，10月12日(星期六)上班补10月7日(星期一)的班</t>
   </si>
@@ -156,77 +155,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2019-02-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-04-28</t>
-  </si>
-  <si>
-    <t>2019-05-05</t>
-  </si>
-  <si>
-    <t>2019-10-12</t>
-  </si>
-  <si>
-    <t>2020-01-19</t>
-  </si>
-  <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-09-27</t>
-  </si>
-  <si>
-    <t>2020-10-10</t>
-  </si>
-  <si>
-    <t>星期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-10-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-02-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-04-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明：第一列日期类数据要设置成文本型，并按YY-m-d格式输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本休息星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日原本休息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三列设置成要调上哪一天的班。</t>
+  </si>
+  <si>
+    <t>并按YY-mm-dd格式输入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：第一列日期类设置成文本型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节期间肯定不会上故未整理调休，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -288,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,7 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,9 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -378,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -391,6 +408,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -486,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -670,26 +710,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="14" customWidth="1"/>
-    <col min="3" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>27</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>12</v>
@@ -700,10 +744,16 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>30</v>
+      <c r="F1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -719,16 +769,21 @@
         <f>TEXT(D2,"aaaa")</f>
         <v>星期一</v>
       </c>
-      <c r="F2" s="15">
-        <v>43498</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>31</v>
+      <c r="F2" s="13" t="str">
+        <f>A2</f>
+        <v>2019-02-02</v>
+      </c>
+      <c r="G2" s="11" t="str">
+        <f>TEXT(F2,"aaaa")</f>
+        <v>星期六</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -744,13 +799,21 @@
         <f>TEXT(D3,"aaaa")</f>
         <v>星期五</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>32</v>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F14" si="0">A3</f>
+        <v>2019-02-03</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G14" si="1">TEXT(F3,"aaaa")</f>
+        <v>星期日</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -759,20 +822,28 @@
         <v>20190502</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" ref="D4:D14" si="0">MID(C4,1,4)&amp;"-"&amp;MID(C4,5,2)&amp;"-"&amp;MID(C4,7,2)</f>
+        <f t="shared" ref="D4:D14" si="2">MID(C4,1,4)&amp;"-"&amp;MID(C4,5,2)&amp;"-"&amp;MID(C4,7,2)</f>
         <v>2019-05-02</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" ref="E4:E14" si="1">TEXT(D4,"aaaa")</f>
+        <f t="shared" ref="E4:E14" si="3">TEXT(D4,"aaaa")</f>
         <v>星期四</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>17</v>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-28</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>星期日</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -781,20 +852,28 @@
         <v>20190503</v>
       </c>
       <c r="D5" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-03</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>星期五</v>
+      </c>
+      <c r="F5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2019-05-03</v>
-      </c>
-      <c r="E5" s="7" t="str">
+        <v>2019-05-05</v>
+      </c>
+      <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>星期五</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>28</v>
+        <v>星期日</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -803,20 +882,25 @@
         <v>20191004</v>
       </c>
       <c r="D6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-04</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>星期五</v>
+      </c>
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2019-10-04</v>
-      </c>
-      <c r="E6" s="7" t="str">
+        <v>2019-09-29</v>
+      </c>
+      <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>星期五</v>
-      </c>
-      <c r="F6" s="15">
-        <v>43737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -825,238 +909,398 @@
         <v>20191007</v>
       </c>
       <c r="D7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-07</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>星期一</v>
+      </c>
+      <c r="F7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2019-10-07</v>
-      </c>
-      <c r="E7" s="7" t="str">
+        <v>2019-10-12</v>
+      </c>
+      <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>星期一</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="str">
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22" t="str">
         <f>E8</f>
-        <v>星期日</v>
-      </c>
-      <c r="C8" s="8">
-        <v>20200119</v>
-      </c>
-      <c r="D8" s="6" t="str">
+        <v>星期三</v>
+      </c>
+      <c r="C8" s="22">
+        <v>20200129</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-01-29</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期三</v>
+      </c>
+      <c r="F8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-01-19</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="G8" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期日</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f t="shared" ref="B9:B14" si="2">E9</f>
-        <v>星期六</v>
-      </c>
-      <c r="C9" s="8">
-        <v>20200201</v>
-      </c>
-      <c r="D9" s="6" t="str">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <f t="shared" ref="B9:B14" si="4">E9</f>
+        <v>星期四</v>
+      </c>
+      <c r="C9" s="22">
+        <v>20200130</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-01-30</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期四</v>
+      </c>
+      <c r="F9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-02-01</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="G9" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期六</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="str">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>星期一</v>
+      </c>
+      <c r="C10" s="22">
+        <v>20200504</v>
+      </c>
+      <c r="D10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>星期日</v>
-      </c>
-      <c r="C10" s="8">
-        <v>20200426</v>
-      </c>
-      <c r="D10" s="6" t="str">
+        <v>2020-05-04</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期一</v>
+      </c>
+      <c r="F10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-04-26</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="G10" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期日</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="str">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>星期二</v>
+      </c>
+      <c r="C11" s="22">
+        <v>20200505</v>
+      </c>
+      <c r="D11" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>星期六</v>
-      </c>
-      <c r="C11" s="8">
-        <v>20200509</v>
-      </c>
-      <c r="D11" s="6" t="str">
+        <v>2020-05-05</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期二</v>
+      </c>
+      <c r="F11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-05-09</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="G11" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期六</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="str">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>星期五</v>
+      </c>
+      <c r="C12" s="22">
+        <v>20200626</v>
+      </c>
+      <c r="D12" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>星期日</v>
-      </c>
-      <c r="C12" s="8">
-        <v>20200628</v>
-      </c>
-      <c r="D12" s="6" t="str">
+        <v>2020-06-26</v>
+      </c>
+      <c r="E12" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期五</v>
+      </c>
+      <c r="F12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-06-28</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="G12" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期日</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="str">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>星期三</v>
+      </c>
+      <c r="C13" s="22">
+        <v>20201007</v>
+      </c>
+      <c r="D13" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>星期日</v>
-      </c>
-      <c r="C13" s="8">
-        <v>20200927</v>
-      </c>
-      <c r="D13" s="6" t="str">
+        <v>2020-10-07</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期三</v>
+      </c>
+      <c r="F13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-09-27</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期日</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="str">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>星期四</v>
+      </c>
+      <c r="C14" s="22">
+        <v>20201008</v>
+      </c>
+      <c r="D14" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>星期六</v>
-      </c>
-      <c r="C14" s="10">
-        <v>20201010</v>
-      </c>
-      <c r="D14" s="11" t="str">
+        <v>2020-10-08</v>
+      </c>
+      <c r="E14" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>星期四</v>
+      </c>
+      <c r="F14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2020-10-10</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="G14" s="25" t="str">
         <f t="shared" si="1"/>
         <v>星期六</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44311</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" ref="B15:B18" si="5">E15</f>
+        <v>星期二</v>
+      </c>
+      <c r="C15" s="18">
+        <v>20210504</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" ref="D15:D18" si="6">MID(C15,1,4)&amp;"-"&amp;MID(C15,5,2)&amp;"-"&amp;MID(C15,7,2)</f>
+        <v>2021-05-04</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" ref="E15:E18" si="7">TEXT(D15,"aaaa")</f>
+        <v>星期二</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:F18" si="8">A15</f>
+        <v>44311</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" ref="G15:G18" si="9">TEXT(F15,"aaaa")</f>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>44324</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>星期三</v>
+      </c>
+      <c r="C16" s="18">
+        <v>20210505</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>2021-05-05</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>星期三</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="8"/>
+        <v>44324</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44457</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" ref="B17" si="10">E17</f>
+        <v>星期一</v>
+      </c>
+      <c r="C17" s="18">
+        <v>20210920</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f t="shared" ref="D17" si="11">MID(C17,1,4)&amp;"-"&amp;MID(C17,5,2)&amp;"-"&amp;MID(C17,7,2)</f>
+        <v>2021-09-20</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" ref="E17" si="12">TEXT(D17,"aaaa")</f>
+        <v>星期一</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" ref="F17" si="13">A17</f>
+        <v>44457</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" ref="G17" si="14">TEXT(F17,"aaaa")</f>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44465</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>星期三</v>
+      </c>
+      <c r="C18" s="18">
+        <v>20211006</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>2021-10-06</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>星期三</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="8"/>
+        <v>44465</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>44478</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" ref="B19" si="15">E19</f>
+        <v>星期四</v>
+      </c>
+      <c r="C19" s="18">
+        <v>20211007</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f t="shared" ref="D19" si="16">MID(C19,1,4)&amp;"-"&amp;MID(C19,5,2)&amp;"-"&amp;MID(C19,7,2)</f>
+        <v>2021-10-07</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" ref="E19" si="17">TEXT(D19,"aaaa")</f>
+        <v>星期四</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19" si="18">A19</f>
+        <v>44478</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" ref="G19" si="19">TEXT(F19,"aaaa")</f>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="9"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="9"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="9"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="9"/>
-      <c r="D27" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,10 +1310,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07DA13-98B1-491F-971A-28E10E7D8468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1082,8 +1326,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>33</v>
+      <c r="A2" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
